--- a/xlsx/Wiki引擎_intext.xlsx
+++ b/xlsx/Wiki引擎_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
   <si>
     <t>Wiki引擎</t>
   </si>
@@ -29,33 +29,30 @@
     <t>Wiki</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_Wiki引擎</t>
+    <t>政策_政策_维基百科_Wiki引擎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>軟體</t>
+    <t>软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>網路</t>
+    <t>网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>維基百科</t>
+    <t>维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>维基百科</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Wiki%E8%BD%AF%E4%BB%B6%E6%AF%94%E8%BE%83</t>
   </si>
   <si>
@@ -149,7 +146,7 @@
     <t>http://www.pmwiki.org/wiki/PmWikiZhCn/PmWikiZhCn</t>
   </si>
   <si>
-    <t>PmWiki 簡體中文版</t>
+    <t>PmWiki 简体中文版</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/DokuWiki</t>
@@ -209,7 +206,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%80%E8%A6%8B%E5%8D%B3%E6%89%80%E5%BE%97</t>
   </si>
   <si>
-    <t>所見即所得</t>
+    <t>所见即所得</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/LAMP</t>
@@ -227,19 +224,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E7%A7%91%E6%9B%B8</t>
   </si>
   <si>
-    <t>維基教科書</t>
+    <t>维基教科书</t>
   </si>
   <si>
     <t>https://web.archive.org/web/20051223074544/http://www.spack.org/wiki/WikiReview</t>
   </si>
   <si>
-    <t>Wiki預覽</t>
+    <t>Wiki预览</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E7%B6%AD%E5%9F%BA</t>
   </si>
   <si>
-    <t>元維基</t>
+    <t>元维基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AA%E4%BA%BAWiki</t>
@@ -281,7 +278,7 @@
     <t>https://zh.wikipedia.org/wiki/Wiki%E8%BE%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>Wiki農場</t>
+    <t>Wiki农场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wiki%E6%A0%87%E8%AE%B0%E8%AF%AD%E8%A8%80</t>
@@ -299,7 +296,7 @@
     <t>https://zh.wikipedia.org/wiki/Wiki%E7%B6%B2%E7%AB%99%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>Wiki網站列表</t>
+    <t>Wiki网站列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_wiki_software</t>
@@ -317,7 +314,7 @@
     <t>https://zh.wikipedia.org/wiki/Wiki%E8%BE%B2%E5%A0%B4%E6%AF%94%E8%BC%83%E8%A1%A8</t>
   </si>
   <si>
-    <t>Wiki農場比較表</t>
+    <t>Wiki农场比较表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_of_wikis</t>
@@ -854,7 +851,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
         <v>8</v>
@@ -880,10 +877,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
       </c>
       <c r="G7" t="n">
         <v>2</v>
@@ -909,10 +906,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>3</v>
@@ -938,10 +935,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
@@ -967,10 +964,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>9</v>
@@ -996,10 +993,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>5</v>
@@ -1025,10 +1022,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>6</v>
@@ -1054,10 +1051,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1083,10 +1080,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
@@ -1112,10 +1109,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1141,10 +1138,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1170,10 +1167,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>7</v>
@@ -1199,10 +1196,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1228,10 +1225,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1257,10 +1254,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1286,10 +1283,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>3</v>
@@ -1315,10 +1312,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1344,10 +1341,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1373,10 +1370,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1402,10 +1399,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" t="s">
         <v>39</v>
-      </c>
-      <c r="F25" t="s">
-        <v>40</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1431,10 +1428,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1460,10 +1457,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1489,10 +1486,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1518,10 +1515,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1547,10 +1544,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -1576,10 +1573,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1605,10 +1602,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1634,10 +1631,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1663,10 +1660,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1692,10 +1689,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -1721,10 +1718,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1750,10 +1747,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1779,10 +1776,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1808,10 +1805,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1837,10 +1834,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1866,10 +1863,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1895,10 +1892,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1924,10 +1921,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1953,10 +1950,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -1982,10 +1979,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2011,10 +2008,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -2040,10 +2037,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2069,10 +2066,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2098,10 +2095,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2127,10 +2124,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2156,10 +2153,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2185,10 +2182,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2214,10 +2211,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2243,10 +2240,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>4</v>
@@ -2272,10 +2269,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
